--- a/public/file/icp.xlsx
+++ b/public/file/icp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\3D Objects\e-budget\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\luffy\project\e-budget\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20050FB-5BBC-4386-898D-E1D1D5BB7640}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D990B1-A102-422D-9E54-DD0E913A7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>PT. Haka Sarana Investama</t>
-  </si>
-  <si>
-    <t>PT. Kalla Electrikal System</t>
-  </si>
-  <si>
-    <t>PT. Bumi Asri Nusa</t>
-  </si>
-  <si>
-    <t>PT. Makassar Perkasa Properti</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Kode ICP</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>TESTTTTTT</t>
   </si>
 </sst>
 </file>
@@ -392,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -405,42 +396,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>211</v>
+        <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/icp.xlsx
+++ b/public/file/icp.xlsx
@@ -5,46 +5,59 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\luffy\project\e-budget\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BinariesProject\Kalla-Finance\sample upload\new sample master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D990B1-A102-422D-9E54-DD0E913A7948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{687E24B2-B133-4C01-A7E6-F29793FEFB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEA2E2A4-2A1A-42EB-AB86-BA65A8BEB1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Kode ICP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>TESTTTTTT</t>
+    <t>PT. Haka Sarana Investama</t>
+  </si>
+  <si>
+    <t>PT. Kalla Electrikal System</t>
+  </si>
+  <si>
+    <t>ICP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +77,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{F2FD9731-729D-4948-9501-FCFE4C8E0347}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,40 +397,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65270852-C609-42C3-B14F-B2CBAF9BCD68}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>801</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>